--- a/Normalizacao1.xlsx
+++ b/Normalizacao1.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21523"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFBF5F08-C128-42C4-A5ED-00181AE27F04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="NÃO NORMALIZADA" sheetId="3" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
+    <sheet name="CRIME" sheetId="2" r:id="rId3"/>
+    <sheet name="OCORRENCIA" sheetId="4" r:id="rId4"/>
+    <sheet name="CIDADE" sheetId="5" r:id="rId5"/>
+    <sheet name="BAIRRO" sheetId="6" r:id="rId6"/>
+    <sheet name="RUA" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="123">
   <si>
     <t>NUMERO</t>
   </si>
@@ -37,9 +42,6 @@
     <t>TIPO_CRIME</t>
   </si>
   <si>
-    <t>SEXO</t>
-  </si>
-  <si>
     <t>IDADE</t>
   </si>
   <si>
@@ -97,9 +99,6 @@
     <t>HOMICIDIO DOLOSO</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>MUNIZ FREIRE</t>
   </si>
   <si>
@@ -226,9 +225,6 @@
     <t>Incluír uma seção de ocorrências em tempo real</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>SAO GERALDO</t>
   </si>
   <si>
@@ -368,13 +364,46 @@
   </si>
   <si>
     <t xml:space="preserve">Top Demais </t>
+  </si>
+  <si>
+    <t>ID_CRIME</t>
+  </si>
+  <si>
+    <t>ID_SEXO</t>
+  </si>
+  <si>
+    <t>ID_CIDADE</t>
+  </si>
+  <si>
+    <t>ID_BAIRRO</t>
+  </si>
+  <si>
+    <t>LESÃO COM MORTE</t>
+  </si>
+  <si>
+    <t>NOME</t>
+  </si>
+  <si>
+    <t>LINHA</t>
+  </si>
+  <si>
+    <t>CLASSIFICAÇÃO_LINHA</t>
+  </si>
+  <si>
+    <t>CLASSIFICAÇÃO_RUA</t>
+  </si>
+  <si>
+    <t>QUANTIDADE_CRIMES</t>
+  </si>
+  <si>
+    <t>COMENTÁRIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,16 +419,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -407,21 +463,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Hyperlink" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,73 +554,91 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD7978B6-EDDF-4A41-8BC3-2CECCFA45CF1}" name="Tabela1" displayName="Tabela1" ref="C7:K17" totalsRowShown="0">
-  <autoFilter ref="C7:K17" xr:uid="{8CD88290-E7CF-4F4E-AD64-40C483FE6DE4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="C7:K17" totalsRowShown="0">
+  <autoFilter ref="C7:K17"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BED431A0-01B0-449D-9247-5E1270F0A333}" name="NUMERO"/>
-    <tableColumn id="2" xr3:uid="{C5F4D9C1-E954-46BF-8F2B-E8328BF25E2D}" name="DATA"/>
-    <tableColumn id="3" xr3:uid="{718A801F-1B67-476B-B7CE-42AB9F5C0253}" name="HORA"/>
-    <tableColumn id="4" xr3:uid="{00DB814F-7C70-478B-A56D-EFC2405EC82E}" name="TIPO_CRIME"/>
-    <tableColumn id="5" xr3:uid="{A42FEF90-D2C5-432F-A1C8-5102F11899FA}" name="SEXO"/>
-    <tableColumn id="6" xr3:uid="{4071A3BF-723F-4166-A6AE-23F581AA7289}" name="IDADE"/>
-    <tableColumn id="7" xr3:uid="{EA2A897A-908C-4E36-80D3-2B68942996E3}" name="CIDADE"/>
-    <tableColumn id="8" xr3:uid="{568ADFE3-F15B-48E2-BD09-38D807920872}" name="BAIRRO"/>
-    <tableColumn id="9" xr3:uid="{639E4B75-32ED-46A1-A87E-C96FB82A9100}" name="RUA"/>
+    <tableColumn id="1" name="NUMERO"/>
+    <tableColumn id="2" name="DATA"/>
+    <tableColumn id="3" name="HORA"/>
+    <tableColumn id="4" name="ID_CRIME"/>
+    <tableColumn id="5" name="ID_SEXO"/>
+    <tableColumn id="6" name="IDADE"/>
+    <tableColumn id="7" name="ID_CIDADE"/>
+    <tableColumn id="8" name="ID_BAIRRO"/>
+    <tableColumn id="9" name="ID_RUA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5407878D-8DFC-4ACE-84B0-5D96FD2B8A84}" name="Tabela2" displayName="Tabela2" ref="N7:Q17" totalsRowShown="0">
-  <autoFilter ref="N7:Q17" xr:uid="{509D897F-70FA-4D76-AEBC-E45EC64F6716}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="N7:Q17" totalsRowShown="0">
+  <autoFilter ref="N7:Q17"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4367C2C7-9B9D-4F8A-820B-78DF99D24EB2}" name="LOGIN"/>
-    <tableColumn id="2" xr3:uid="{30856587-B394-47A8-A158-64BD552765A1}" name="SENHA"/>
-    <tableColumn id="3" xr3:uid="{CE570B94-7975-4609-9A8C-DC10A7330829}" name="CPF"/>
-    <tableColumn id="4" xr3:uid="{E288F6A4-563F-430B-9BC2-637A29E35E35}" name="EMAIL"/>
+    <tableColumn id="1" name="LOGIN"/>
+    <tableColumn id="2" name="SENHA"/>
+    <tableColumn id="3" name="CPF"/>
+    <tableColumn id="4" name="EMAIL"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{65CC5F4F-D88C-438B-9FB6-D95FE7049C37}" name="Tabela3" displayName="Tabela3" ref="T7:W17" totalsRowShown="0">
-  <autoFilter ref="T7:W17" xr:uid="{601B48D4-2F85-4F37-9A1D-A5FDE63C813F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="T7:W17" totalsRowShown="0">
+  <autoFilter ref="T7:W17"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EA493E2E-2D9D-46C8-BC21-F1B8BF131B03}" name="ID_ONIBUS"/>
-    <tableColumn id="2" xr3:uid="{75D32409-FA8E-4845-8EFC-D8237BE67606}" name="NUM_LINHA"/>
-    <tableColumn id="3" xr3:uid="{144B9AF7-6173-46D2-A458-24819EE2C301}" name="CLASS_LINHA"/>
-    <tableColumn id="4" xr3:uid="{86DE4776-D3A5-42E7-92CF-17006D297CE0}" name="QNT_CRIMES"/>
+    <tableColumn id="1" name="ID_ONIBUS"/>
+    <tableColumn id="2" name="NUM_LINHA"/>
+    <tableColumn id="3" name="CLASS_LINHA"/>
+    <tableColumn id="4" name="QNT_CRIMES"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{34D225DF-BEDB-42BB-A112-957C3B395A61}" name="Tabela4" displayName="Tabela4" ref="Y7:AD17" totalsRowShown="0">
-  <autoFilter ref="Y7:AD17" xr:uid="{FBA0C606-5563-4AF7-8641-5741F68785DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="Y7:AD17" totalsRowShown="0">
+  <autoFilter ref="Y7:AD17"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C0E1E418-267A-4785-8CE9-07DB18F30CA7}" name="ID_RUA"/>
-    <tableColumn id="2" xr3:uid="{FF326BC4-EC44-4761-B73D-D06B59A3997F}" name="RUA"/>
-    <tableColumn id="3" xr3:uid="{03E51BB1-9943-4E56-B879-E73D22B039EC}" name="BAIRRO"/>
-    <tableColumn id="4" xr3:uid="{D7566B51-DA3D-4971-8414-0A32FAE5E2EA}" name="CIDADE"/>
-    <tableColumn id="5" xr3:uid="{FAFF676E-745E-4697-8C5D-2FFA730BF019}" name="CLASS_RUA"/>
-    <tableColumn id="6" xr3:uid="{2CCCD759-DD6A-48B2-99A6-935AE600B6ED}" name="QNT_CRIMES"/>
+    <tableColumn id="1" name="ID_RUA"/>
+    <tableColumn id="2" name="RUA"/>
+    <tableColumn id="3" name="BAIRRO"/>
+    <tableColumn id="4" name="CIDADE"/>
+    <tableColumn id="5" name="CLASS_RUA"/>
+    <tableColumn id="6" name="QNT_CRIMES"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2ACFFCD4-A367-4E54-8B63-B51EF3161BBA}" name="Tabela5" displayName="Tabela5" ref="AF7:AJ17" totalsRowShown="0">
-  <autoFilter ref="AF7:AJ17" xr:uid="{741C7516-44BA-4BA0-BD52-35122995796E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="AF7:AJ17" totalsRowShown="0">
+  <autoFilter ref="AF7:AJ17"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B3D5D567-E96F-42AA-8AC5-D8C57169AD72}" name="ID_COMENT"/>
-    <tableColumn id="2" xr3:uid="{E303A916-EB8B-47F8-96E4-55A4D436FBAE}" name="NOME_USER"/>
-    <tableColumn id="3" xr3:uid="{DF9198CF-5D8F-469F-A945-00A3E273E834}" name="TIPO_COMENT"/>
-    <tableColumn id="4" xr3:uid="{95205E30-AB84-454D-90F3-6F00803797E3}" name="DESCRICAO"/>
-    <tableColumn id="5" xr3:uid="{531B5289-2011-4206-BFB0-D9FF49477B62}" name="DATA"/>
+    <tableColumn id="1" name="ID_COMENT"/>
+    <tableColumn id="2" name="NOME_USER"/>
+    <tableColumn id="3" name="TIPO_COMENT"/>
+    <tableColumn id="4" name="DESCRICAO"/>
+    <tableColumn id="5" name="DATA"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela18" displayName="Tabela18" ref="E6:M16" totalsRowShown="0">
+  <autoFilter ref="E6:M16"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="NUMERO"/>
+    <tableColumn id="2" name="DATA"/>
+    <tableColumn id="3" name="HORA"/>
+    <tableColumn id="4" name="ID_CRIME"/>
+    <tableColumn id="5" name="ID_SEXO"/>
+    <tableColumn id="6" name="IDADE"/>
+    <tableColumn id="7" name="ID_CIDADE"/>
+    <tableColumn id="8" name="ID_BAIRRO"/>
+    <tableColumn id="9" name="ID_RUA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -553,7 +687,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -605,7 +739,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -799,31 +933,149 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C7:AJ17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="AJ19" sqref="AJ19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C7:AJ21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" customWidth="1"/>
     <col min="14" max="14" width="14.140625" customWidth="1"/>
     <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.42578125" customWidth="1"/>
@@ -844,7 +1096,7 @@
     <col min="36" max="36" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:36">
+    <row r="7" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -855,82 +1107,82 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="G7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" t="s">
         <v>4</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" t="s">
+        <v>14</v>
+      </c>
+      <c r="W7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB7" t="s">
         <v>5</v>
       </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>12</v>
-      </c>
-      <c r="T7" t="s">
-        <v>13</v>
-      </c>
-      <c r="U7" t="s">
-        <v>14</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="AC7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD7" t="s">
         <v>15</v>
       </c>
-      <c r="W7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC7" t="s">
+      <c r="AF7" t="s">
         <v>18</v>
       </c>
-      <c r="AD7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>19</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>20</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>21</v>
       </c>
-      <c r="AI7" t="s">
-        <v>22</v>
-      </c>
       <c r="AJ7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:36">
+    <row r="8" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>1</v>
       </c>
@@ -940,35 +1192,35 @@
       <c r="E8" s="3">
         <v>0.86736111111111114</v>
       </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8">
         <v>27</v>
       </c>
       <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
         <v>25</v>
       </c>
-      <c r="J8" t="s">
+      <c r="N8" t="s">
         <v>26</v>
       </c>
-      <c r="K8" t="s">
+      <c r="O8" t="s">
         <v>27</v>
-      </c>
-      <c r="N8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" t="s">
-        <v>29</v>
       </c>
       <c r="P8">
         <v>14925798740</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -977,7 +1229,7 @@
         <v>501</v>
       </c>
       <c r="V8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W8">
         <v>6</v>
@@ -986,16 +1238,16 @@
         <v>97</v>
       </c>
       <c r="Z8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AD8">
         <v>8</v>
@@ -1004,19 +1256,19 @@
         <v>11</v>
       </c>
       <c r="AG8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI8" t="s">
         <v>32</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>34</v>
       </c>
       <c r="AJ8" s="4">
         <v>43499</v>
       </c>
     </row>
-    <row r="9" spans="3:36">
+    <row r="9" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>2</v>
       </c>
@@ -1026,35 +1278,35 @@
       <c r="E9" s="1">
         <v>0.4604166666666667</v>
       </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
       </c>
       <c r="H9">
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
         <v>36</v>
       </c>
-      <c r="J9" t="s">
+      <c r="N9" t="s">
         <v>37</v>
       </c>
-      <c r="K9" t="s">
+      <c r="O9" t="s">
         <v>38</v>
-      </c>
-      <c r="N9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" t="s">
-        <v>40</v>
       </c>
       <c r="P9">
         <v>21425498740</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T9">
         <v>2</v>
@@ -1063,7 +1315,7 @@
         <v>860</v>
       </c>
       <c r="V9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -1072,16 +1324,16 @@
         <v>98</v>
       </c>
       <c r="Z9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AD9">
         <v>31</v>
@@ -1090,19 +1342,19 @@
         <v>12</v>
       </c>
       <c r="AG9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI9" t="s">
         <v>44</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>46</v>
       </c>
       <c r="AJ9" s="4">
         <v>43503</v>
       </c>
     </row>
-    <row r="10" spans="3:36">
+    <row r="10" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>3</v>
       </c>
@@ -1112,35 +1364,35 @@
       <c r="E10" s="1">
         <v>0.8354166666666667</v>
       </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
       <c r="H10">
         <v>19</v>
       </c>
       <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" t="s">
         <v>47</v>
       </c>
-      <c r="J10" t="s">
+      <c r="N10" t="s">
         <v>48</v>
       </c>
-      <c r="K10" t="s">
+      <c r="O10" t="s">
         <v>49</v>
-      </c>
-      <c r="N10" t="s">
-        <v>50</v>
-      </c>
-      <c r="O10" t="s">
-        <v>51</v>
       </c>
       <c r="P10">
         <v>14820849750</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T10">
         <v>3</v>
@@ -1149,7 +1401,7 @@
         <v>503</v>
       </c>
       <c r="V10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W10">
         <v>25</v>
@@ -1158,16 +1410,16 @@
         <v>99</v>
       </c>
       <c r="Z10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AA10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AC10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AD10">
         <v>18</v>
@@ -1176,19 +1428,19 @@
         <v>13</v>
       </c>
       <c r="AG10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI10" t="s">
         <v>55</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>57</v>
       </c>
       <c r="AJ10" s="4">
         <v>43509</v>
       </c>
     </row>
-    <row r="11" spans="3:36">
+    <row r="11" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>4</v>
       </c>
@@ -1198,35 +1450,35 @@
       <c r="E11" s="1">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
       <c r="H11">
         <v>49</v>
       </c>
       <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s">
         <v>58</v>
       </c>
-      <c r="J11" t="s">
+      <c r="N11" t="s">
         <v>59</v>
       </c>
-      <c r="K11" t="s">
+      <c r="O11" t="s">
         <v>60</v>
-      </c>
-      <c r="N11" t="s">
-        <v>61</v>
-      </c>
-      <c r="O11" t="s">
-        <v>62</v>
       </c>
       <c r="P11">
         <v>24312387650</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T11">
         <v>4</v>
@@ -1235,7 +1487,7 @@
         <v>525</v>
       </c>
       <c r="V11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W11">
         <v>8</v>
@@ -1244,16 +1496,16 @@
         <v>96</v>
       </c>
       <c r="Z11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AA11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AD11">
         <v>36</v>
@@ -1262,19 +1514,19 @@
         <v>14</v>
       </c>
       <c r="AG11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI11" t="s">
         <v>64</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>66</v>
       </c>
       <c r="AJ11" s="4">
         <v>43529</v>
       </c>
     </row>
-    <row r="12" spans="3:36">
+    <row r="12" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>5</v>
       </c>
@@ -1284,35 +1536,35 @@
       <c r="E12" s="1">
         <v>9.0277777777777787E-3</v>
       </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>67</v>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
       </c>
       <c r="H12">
         <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" t="s">
         <v>68</v>
-      </c>
-      <c r="K12" t="s">
-        <v>69</v>
-      </c>
-      <c r="N12" t="s">
-        <v>70</v>
-      </c>
-      <c r="O12" t="s">
-        <v>71</v>
       </c>
       <c r="P12">
         <v>12498245128</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T12">
         <v>5</v>
@@ -1321,7 +1573,7 @@
         <v>507</v>
       </c>
       <c r="V12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W12">
         <v>31</v>
@@ -1330,16 +1582,16 @@
         <v>95</v>
       </c>
       <c r="Z12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AA12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AB12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AD12">
         <v>7</v>
@@ -1348,19 +1600,19 @@
         <v>15</v>
       </c>
       <c r="AG12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AH12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AI12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AJ12" s="4">
         <v>43535</v>
       </c>
     </row>
-    <row r="13" spans="3:36">
+    <row r="13" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>6</v>
       </c>
@@ -1370,35 +1622,35 @@
       <c r="E13" s="1">
         <v>0.30694444444444441</v>
       </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
       </c>
       <c r="H13">
         <v>22</v>
       </c>
       <c r="I13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" t="s">
         <v>76</v>
       </c>
-      <c r="J13" t="s">
+      <c r="O13" t="s">
         <v>77</v>
-      </c>
-      <c r="K13" t="s">
-        <v>78</v>
-      </c>
-      <c r="N13" t="s">
-        <v>79</v>
-      </c>
-      <c r="O13" t="s">
-        <v>80</v>
       </c>
       <c r="P13">
         <v>23654898780</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="T13">
         <v>6</v>
@@ -1407,7 +1659,7 @@
         <v>516</v>
       </c>
       <c r="V13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="W13">
         <v>18</v>
@@ -1416,16 +1668,16 @@
         <v>94</v>
       </c>
       <c r="Z13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AB13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AD13">
         <v>6</v>
@@ -1434,19 +1686,19 @@
         <v>16</v>
       </c>
       <c r="AG13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AI13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AJ13" s="4">
         <v>43543</v>
       </c>
     </row>
-    <row r="14" spans="3:36">
+    <row r="14" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>7</v>
       </c>
@@ -1456,35 +1708,35 @@
       <c r="E14" s="1">
         <v>0.34027777777777773</v>
       </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
       </c>
       <c r="H14">
         <v>19</v>
       </c>
       <c r="I14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" t="s">
         <v>84</v>
       </c>
-      <c r="J14" t="s">
+      <c r="O14" t="s">
         <v>85</v>
-      </c>
-      <c r="K14" t="s">
-        <v>86</v>
-      </c>
-      <c r="N14" t="s">
-        <v>87</v>
-      </c>
-      <c r="O14" t="s">
-        <v>88</v>
       </c>
       <c r="P14">
         <v>14520895470</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="T14">
         <v>7</v>
@@ -1493,7 +1745,7 @@
         <v>831</v>
       </c>
       <c r="V14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W14">
         <v>36</v>
@@ -1502,16 +1754,16 @@
         <v>93</v>
       </c>
       <c r="Z14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AA14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AB14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AC14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -1520,19 +1772,19 @@
         <v>17</v>
       </c>
       <c r="AG14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AH14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AI14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AJ14" s="4">
         <v>43547</v>
       </c>
     </row>
-    <row r="15" spans="3:36">
+    <row r="15" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>8</v>
       </c>
@@ -1542,35 +1794,35 @@
       <c r="E15" s="1">
         <v>0.78194444444444444</v>
       </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
       </c>
       <c r="H15">
         <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" t="s">
+        <v>90</v>
+      </c>
+      <c r="N15" t="s">
+        <v>91</v>
+      </c>
+      <c r="O15" t="s">
         <v>92</v>
-      </c>
-      <c r="K15" t="s">
-        <v>93</v>
-      </c>
-      <c r="N15" t="s">
-        <v>94</v>
-      </c>
-      <c r="O15" t="s">
-        <v>95</v>
       </c>
       <c r="P15">
         <v>98520195773</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="T15">
         <v>8</v>
@@ -1579,7 +1831,7 @@
         <v>606</v>
       </c>
       <c r="V15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="W15">
         <v>19</v>
@@ -1588,16 +1840,16 @@
         <v>92</v>
       </c>
       <c r="Z15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AA15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AB15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AC15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AD15">
         <v>25</v>
@@ -1606,19 +1858,19 @@
         <v>18</v>
       </c>
       <c r="AG15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AI15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AJ15" s="4">
         <v>43556</v>
       </c>
     </row>
-    <row r="16" spans="3:36">
+    <row r="16" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>9</v>
       </c>
@@ -1628,26 +1880,26 @@
       <c r="E16" s="1">
         <v>0.8569444444444444</v>
       </c>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
       </c>
       <c r="H16">
         <v>40</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O16">
         <v>112358</v>
@@ -1656,7 +1908,7 @@
         <v>45621487440</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T16">
         <v>9</v>
@@ -1665,7 +1917,7 @@
         <v>510</v>
       </c>
       <c r="V16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W16">
         <v>9</v>
@@ -1674,16 +1926,16 @@
         <v>91</v>
       </c>
       <c r="Z16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AA16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AB16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AD16">
         <v>19</v>
@@ -1692,19 +1944,19 @@
         <v>19</v>
       </c>
       <c r="AG16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AH16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AI16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AJ16" s="4">
         <v>43564</v>
       </c>
     </row>
-    <row r="17" spans="3:36">
+    <row r="17" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>10</v>
       </c>
@@ -1714,35 +1966,35 @@
       <c r="E17" s="1">
         <v>0.94027777777777777</v>
       </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
       <c r="H17">
         <v>22</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P17">
         <v>43520875419</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="T17">
         <v>10</v>
@@ -1751,7 +2003,7 @@
         <v>505</v>
       </c>
       <c r="V17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W17">
         <v>7</v>
@@ -1760,16 +2012,16 @@
         <v>89</v>
       </c>
       <c r="Z17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AB17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AD17">
         <v>38</v>
@@ -1778,30 +2030,33 @@
         <v>20</v>
       </c>
       <c r="AG17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AH17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AI17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AJ17" s="4">
         <v>43585</v>
       </c>
     </row>
+    <row r="21" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="F21" s="12"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q8" r:id="rId1" xr:uid="{E2392906-71B2-4BE4-B8EA-2BB0E6AB6BD2}"/>
-    <hyperlink ref="Q9" r:id="rId2" xr:uid="{004A3CA6-EF66-4EF4-AC2A-8A2C2702D17D}"/>
-    <hyperlink ref="Q10" r:id="rId3" xr:uid="{A85614CC-EF1B-43BE-AD82-C50A8D8E3F86}"/>
-    <hyperlink ref="Q11" r:id="rId4" xr:uid="{37A65009-A2A2-4CAC-B9D9-693DC70511BC}"/>
-    <hyperlink ref="Q12" r:id="rId5" xr:uid="{8365E666-EDF8-468F-933B-D9905211D453}"/>
-    <hyperlink ref="Q13" r:id="rId6" xr:uid="{F71AADE9-292F-4089-8A0B-F7FE3CB7CA96}"/>
-    <hyperlink ref="Q14" r:id="rId7" xr:uid="{C2E98948-3439-4598-A2F6-44E1BF25921F}"/>
-    <hyperlink ref="Q15" r:id="rId8" xr:uid="{F67A2BAB-62FA-43E4-B796-4344ADCCA922}"/>
-    <hyperlink ref="Q16" r:id="rId9" xr:uid="{F2E4C812-B2CF-4E6D-9A4E-158554EB95D8}"/>
-    <hyperlink ref="Q17" r:id="rId10" xr:uid="{14D3D386-5826-469B-B367-02FC1AAF3E91}"/>
+    <hyperlink ref="Q8" r:id="rId1"/>
+    <hyperlink ref="Q9" r:id="rId2"/>
+    <hyperlink ref="Q10" r:id="rId3"/>
+    <hyperlink ref="Q11" r:id="rId4"/>
+    <hyperlink ref="Q12" r:id="rId5"/>
+    <hyperlink ref="Q13" r:id="rId6"/>
+    <hyperlink ref="Q14" r:id="rId7"/>
+    <hyperlink ref="Q15" r:id="rId8"/>
+    <hyperlink ref="Q16" r:id="rId9"/>
+    <hyperlink ref="Q17" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="5">
@@ -1812,4 +2067,582 @@
     <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E6:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="10">
+        <v>2</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E6:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43466</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.86736111111111114</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>43467</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>43469</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.8354166666666667</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>43475</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4">
+        <v>43489</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>36</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12" s="4">
+        <v>43492</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4">
+        <v>43495</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4">
+        <v>43495</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.78194444444444444</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4">
+        <v>43496</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.8569444444444444</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>40</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4">
+        <v>43496</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.94027777777777777</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>22</v>
+      </c>
+      <c r="K16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="10">
+        <v>4</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="18">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="17">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="18">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="17">
+        <v>5</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="18">
+        <v>6</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="17">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="18">
+        <v>8</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="17">
+        <v>9</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="18">
+        <v>10</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>